--- a/biology/Zoologie/Azuré_de_l'héliotrope/Azuré_de_l'héliotrope.xlsx
+++ b/biology/Zoologie/Azuré_de_l'héliotrope/Azuré_de_l'héliotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freyeria trochylus
 L’Azuré de l'héliotrope ou Azuré de Freyer (Freyeria trochylus) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En français : l'Azuré de l'héliotrope, l'Azuré de Freyer.
-En anglais : Grass Jewel[1].</t>
+En anglais : Grass Jewel.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de l'Azuré de l'héliotrope est un papillon de taille particulièrement petite.
 Le dessus des ailes est brun, orné aux ailes postérieures de quelques points marginaux noirs et d'une courte bande submarginale orange vif.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-En Grèce, l'Azuré de l'héliotrope vole de fin mars à fin octobre en plusieurs générations. Il hiverne à l'état nymphal[2].
-Plantes-hôtes et myrmécophilie
-Ses plantes-hôtes varient selon les pays : on recense notamment des héliotropes (Heliotropium hirsutissimum, H. ellipticum), des Indigofera (Indigofera cryptantha, I. colutea, I. hirsuta), tandis qu’Andrachne telephioides est utilisée en Grèce[1],[2].
-Les chenilles sont prises en charge par des fourmis, notamment Acantholepsis sp., Pheidole quadrispinosa, Prenolepsis sp. et Iridomyrmex sp.[2]
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Grèce, l'Azuré de l'héliotrope vole de fin mars à fin octobre en plusieurs générations. Il hiverne à l'état nymphal.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,13 +627,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Azuré de l'héliotrope est présent en Grèce, en Turquie, au Moyen-Orient, dans le Caucase, au Moyen-Orient, en Asie du Sud et du Sud-Est, au Japon, ainsi que dans une grande partie de l'Afrique et à Madagascar[1],[2].
-L'espèce est très sédentaire et on la trouve dans des zones rocailleuses chaudes et sèches[2].
+          <t>Plantes-hôtes et myrmécophilie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes varient selon les pays : on recense notamment des héliotropes (Heliotropium hirsutissimum, H. ellipticum), des Indigofera (Indigofera cryptantha, I. colutea, I. hirsuta), tandis qu’Andrachne telephioides est utilisée en Grèce,.
+Les chenilles sont prises en charge par des fourmis, notamment Acantholepsis sp., Pheidole quadrispinosa, Prenolepsis sp. et Iridomyrmex sp.
 </t>
         </is>
       </c>
@@ -626,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+          <t>Azuré_de_l'héliotrope</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,49 +665,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré de l'héliotrope est présent en Grèce, en Turquie, au Moyen-Orient, dans le Caucase, au Moyen-Orient, en Asie du Sud et du Sud-Est, au Japon, ainsi que dans une grande partie de l'Afrique et à Madagascar,.
+L'espèce est très sédentaire et on la trouve dans des zones rocailleuses chaudes et sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'héliotrope</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L’espèce Freyeria trochylus a été décrite par l'entomologiste allemand Christian Friedrich Freyer en 1845, sous le nom initial de Lycaena trochylus[3],[1].
-Synonymes[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’espèce Freyeria trochylus a été décrite par l'entomologiste allemand Christian Friedrich Freyer en 1845, sous le nom initial de Lycaena trochylus,.
+Synonymes :
 Lycaena trochylus Freyer, 1845 — protonyme
 Chilades trochylus (Freyer, 1845)
-Plusieurs sous-espèces ont été décrites, notamment[1] :
+Plusieurs sous-espèces ont été décrites, notamment :
 Freyeria trochylus trochylus (Freyer, 1845) — Asie mineure, Caucase.
 Freyeria trochylus formosanus (Matsumura, 1919) — Japon.
 Freyeria trochylus persa (Bytinski-Salz &amp; Brandt, 1937) — Azerbaïdjan, Kopet-Dag.
-Freyeria trochylus obscura (Heydemann, [1955]) — Touran.
+Freyeria trochylus obscura (Heydemann, ) — Touran.
 Freyeria trochylus orientalis Forster, 1980 — Thaïlande, Népal.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'héliotrope</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27h%C3%A9liotrope</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier[réf. souhaitée].
 </t>
